--- a/web/relaxatub/data/Quickship.xlsx
+++ b/web/relaxatub/data/Quickship.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Quickship" sheetId="2" r:id="rId1"/>
+    <sheet name="SQL" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
   <si>
     <t>Model</t>
   </si>
@@ -43,30 +44,18 @@
     <t>360QS</t>
   </si>
   <si>
-    <t>6 + 1</t>
-  </si>
-  <si>
     <t>380QS</t>
   </si>
   <si>
-    <t>7 + 1</t>
-  </si>
-  <si>
     <t>550QS</t>
   </si>
   <si>
-    <t>6 + 2</t>
-  </si>
-  <si>
     <t>725QS</t>
   </si>
   <si>
     <t>750QS</t>
   </si>
   <si>
-    <t>8 + 1</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -170,6 +159,33 @@
   </si>
   <si>
     <t>TW2QEB7NXKSRG</t>
+  </si>
+  <si>
+    <t>select *</t>
+  </si>
+  <si>
+    <t>from product p, quickship q</t>
+  </si>
+  <si>
+    <t>where q.pid = p.pid</t>
+  </si>
+  <si>
+    <t>Update Product</t>
+  </si>
+  <si>
+    <t>Update QS</t>
+  </si>
+  <si>
+    <t>6 + 1</t>
+  </si>
+  <si>
+    <t>7 + 1</t>
+  </si>
+  <si>
+    <t>6 + 2</t>
+  </si>
+  <si>
+    <t>8 + 1</t>
   </si>
 </sst>
 </file>
@@ -218,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -234,6 +250,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -544,7 +563,7 @@
     <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -553,35 +572,37 @@
     <col min="13" max="13" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="124.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="53.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="58.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="124.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24.75" customHeight="1">
+    <row r="1" spans="1:19" ht="24.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -590,28 +611,34 @@
         <v>2</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -619,7 +646,7 @@
         <v>321</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>B2&amp;"-"&amp;C2</f>
@@ -629,26 +656,26 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="str">
-        <f>"Quickship "&amp;M2&amp;" "&amp;E2&amp;""</f>
-        <v>Quickship 321 Portable</v>
+        <f>M2&amp;" ("&amp;C2&amp;") "&amp;E2&amp;""</f>
+        <v>321 (ISP) Portable</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f>F2&amp;" Deposit (20% of "&amp;TEXT(N2,"£0,000")&amp;")"</f>
-        <v>Quickship 321 Portable Deposit (20% of £4,495)</v>
+        <f>"Quickship "&amp;F2&amp;" Deposit (20% of "&amp;TEXT(N2,"£0,000")&amp;")"</f>
+        <v>Quickship 321 (ISP) Portable Deposit (20% of £4,495)</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="3">
@@ -662,15 +689,23 @@
         <v>899</v>
       </c>
       <c r="P2" s="4" t="str">
+        <f>"UPDATE product SET paypal_button_id='"&amp;H2&amp;"', pdescription='"&amp;F2&amp;"' WHERE pid="&amp;A2&amp;";"</f>
+        <v>UPDATE product SET paypal_button_id='WFAMAAEJHY6J4', pdescription='321 (ISP) Portable' WHERE pid=1001;</v>
+      </c>
+      <c r="Q2" s="4" t="str">
         <f>"INSERT INTO product (pcode,pdescription,ptype) VALUES ('"&amp;D2&amp;"', 'Quickship "&amp;M2&amp;" "&amp;E2&amp;"', 'Q');"</f>
         <v>INSERT INTO product (pcode,pdescription,ptype) VALUES ('321-ISP', 'Quickship 321 Portable', 'Q');</v>
       </c>
-      <c r="Q2" s="4" t="str">
+      <c r="R2" s="4" t="str">
+        <f>"UPDATE quickship SET qscode='"&amp;B2&amp;"', tubtype='"&amp;C2&amp;"', seats='"&amp;L2&amp;"' WHERE pid="&amp;A2&amp;";"</f>
+        <v>UPDATE quickship SET qscode='321', tubtype='ISP', seats='4 - 5' WHERE pid=1001;</v>
+      </c>
+      <c r="S2" s="4" t="str">
         <f>"INSERT INTO quickship (pid,acrylic_colour,cabinet_colour,heatshield_colour,seats,tub,price_rrp,deposit) VALUES ('"&amp;A2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"','"&amp;K2&amp;"','"&amp;L2&amp;"','"&amp;M2&amp;"','"&amp;N2&amp;"','"&amp;O2&amp;"');"</f>
         <v>INSERT INTO quickship (pid,acrylic_colour,cabinet_colour,heatshield_colour,seats,tub,price_rrp,deposit) VALUES ('1001','atlantis','bamboo','tan','4 - 5','321','4495','899');</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -678,7 +713,7 @@
         <v>340</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D11" si="0">B3&amp;"-"&amp;C3</f>
@@ -688,24 +723,24 @@
         <v>4</v>
       </c>
       <c r="F3" s="3" t="str">
-        <f t="shared" ref="F3:F11" si="1">"Quickship "&amp;M3&amp;" "&amp;E3&amp;""</f>
-        <v>Quickship 340 Portable</v>
+        <f t="shared" ref="F3:F11" si="1">M3&amp;" ("&amp;C3&amp;") "&amp;E3&amp;""</f>
+        <v>340 (ISP) Portable</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G11" si="2">F3&amp;" Deposit (20% of "&amp;TEXT(N3,"£0,000")&amp;")"</f>
-        <v>Quickship 340 Portable Deposit (20% of £4,995)</v>
+        <f t="shared" ref="G3:G11" si="2">"Quickship "&amp;F3&amp;" Deposit (20% of "&amp;TEXT(N3,"£0,000")&amp;")"</f>
+        <v>Quickship 340 (ISP) Portable Deposit (20% of £4,995)</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L3" s="3">
         <v>5</v>
@@ -721,15 +756,23 @@
         <v>999</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P11" si="4">"INSERT INTO product (pcode,pdescription,ptype) VALUES ('"&amp;D3&amp;"', 'Quickship "&amp;M3&amp;" "&amp;E3&amp;"', 'Q');"</f>
+        <f t="shared" ref="P3:R11" si="4">"UPDATE product SET paypal_button_id='"&amp;H3&amp;"', pdescription='"&amp;F3&amp;"' WHERE pid="&amp;A3&amp;";"</f>
+        <v>UPDATE product SET paypal_button_id='PHMQ5RXGXWWPJ', pdescription='340 (ISP) Portable' WHERE pid=1002;</v>
+      </c>
+      <c r="Q3" s="4" t="str">
+        <f t="shared" ref="Q3:Q11" si="5">"INSERT INTO product (pcode,pdescription,ptype) VALUES ('"&amp;D3&amp;"', 'Quickship "&amp;M3&amp;" "&amp;E3&amp;"', 'Q');"</f>
         <v>INSERT INTO product (pcode,pdescription,ptype) VALUES ('340-ISP', 'Quickship 340 Portable', 'Q');</v>
       </c>
-      <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q11" si="5">"INSERT INTO quickship (pid,acrylic_colour,cabinet_colour,heatshield_colour,seats,tub,price_rrp,deposit) VALUES ('"&amp;A3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"','"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"','"&amp;O3&amp;"');"</f>
+      <c r="R3" s="4" t="str">
+        <f t="shared" ref="R3:R11" si="6">"UPDATE quickship SET qscode='"&amp;B3&amp;"', tubtype='"&amp;C3&amp;"', seats='"&amp;L3&amp;"' WHERE pid="&amp;A3&amp;";"</f>
+        <v>UPDATE quickship SET qscode='340', tubtype='ISP', seats='5' WHERE pid=1002;</v>
+      </c>
+      <c r="S3" s="4" t="str">
+        <f t="shared" ref="S3:S11" si="7">"INSERT INTO quickship (pid,acrylic_colour,cabinet_colour,heatshield_colour,seats,tub,price_rrp,deposit) VALUES ('"&amp;A3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"','"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"','"&amp;O3&amp;"');"</f>
         <v>INSERT INTO quickship (pid,acrylic_colour,cabinet_colour,heatshield_colour,seats,tub,price_rrp,deposit) VALUES ('1002','opal','ebony_enviro','steel','5','340','4995','999');</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -737,7 +780,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -748,23 +791,23 @@
       </c>
       <c r="F4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Quickship 350 Portable</v>
+        <v>350 (LEEP) Portable</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Quickship 350 Portable Deposit (20% of £5,625)</v>
+        <v>Quickship 350 (LEEP) Portable Deposit (20% of £5,625)</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L4" s="3">
         <v>6</v>
@@ -781,14 +824,22 @@
       </c>
       <c r="P4" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO product (pcode,pdescription,ptype) VALUES ('350QS-LEEP', 'Quickship 350 Portable', 'Q');</v>
+        <v>UPDATE product SET paypal_button_id='VF47SDA8FY3TC', pdescription='350 (LEEP) Portable' WHERE pid=1003;</v>
       </c>
       <c r="Q4" s="4" t="str">
         <f t="shared" si="5"/>
+        <v>INSERT INTO product (pcode,pdescription,ptype) VALUES ('350QS-LEEP', 'Quickship 350 Portable', 'Q');</v>
+      </c>
+      <c r="R4" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>UPDATE quickship SET qscode='350QS', tubtype='LEEP', seats='6' WHERE pid=1003;</v>
+      </c>
+      <c r="S4" s="4" t="str">
+        <f t="shared" si="7"/>
         <v>INSERT INTO quickship (pid,acrylic_colour,cabinet_colour,heatshield_colour,seats,tub,price_rrp,deposit) VALUES ('1003','alabaster','ebony_enviro','steel','6','350','5625','1125');</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
@@ -796,7 +847,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -807,23 +858,23 @@
       </c>
       <c r="F5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Quickship 350 Hybrid</v>
+        <v>350 (BHE) Hybrid</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Quickship 350 Hybrid Deposit (20% of £6,165)</v>
+        <v>Quickship 350 (BHE) Hybrid Deposit (20% of £6,165)</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="L5" s="3">
         <v>6</v>
@@ -840,14 +891,22 @@
       </c>
       <c r="P5" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO product (pcode,pdescription,ptype) VALUES ('350QS-BHE', 'Quickship 350 Hybrid', 'Q');</v>
+        <v>UPDATE product SET paypal_button_id='2C5GJY7YR3SZW', pdescription='350 (BHE) Hybrid' WHERE pid=1004;</v>
       </c>
       <c r="Q5" s="4" t="str">
         <f t="shared" si="5"/>
+        <v>INSERT INTO product (pcode,pdescription,ptype) VALUES ('350QS-BHE', 'Quickship 350 Hybrid', 'Q');</v>
+      </c>
+      <c r="R5" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>UPDATE quickship SET qscode='350QS', tubtype='BHE', seats='6' WHERE pid=1004;</v>
+      </c>
+      <c r="S5" s="4" t="str">
+        <f t="shared" si="7"/>
         <v>INSERT INTO quickship (pid,acrylic_colour,cabinet_colour,heatshield_colour,seats,tub,price_rrp,deposit) VALUES ('1004','quartzite','walnut_enviro','tan','6','350','6165','1233');</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
@@ -855,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -866,26 +925,26 @@
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Quickship 360 Portable</v>
+        <v>360 (LEEP) Portable</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Quickship 360 Portable Deposit (20% of £5,625)</v>
+        <v>Quickship 360 (LEEP) Portable Deposit (20% of £5,625)</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>9</v>
+      <c r="L6" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="M6" s="3">
         <v>360</v>
@@ -899,14 +958,22 @@
       </c>
       <c r="P6" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO product (pcode,pdescription,ptype) VALUES ('360QS-LEEP', 'Quickship 360 Portable', 'Q');</v>
+        <v>UPDATE product SET paypal_button_id='BTNA3DCB6WR5U', pdescription='360 (LEEP) Portable' WHERE pid=1005;</v>
       </c>
       <c r="Q6" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO quickship (pid,acrylic_colour,cabinet_colour,heatshield_colour,seats,tub,price_rrp,deposit) VALUES ('1005','quartzite','walnut_enviro','tan','6 + 1','360','5625','1125');</v>
+        <v>INSERT INTO product (pcode,pdescription,ptype) VALUES ('360QS-LEEP', 'Quickship 360 Portable', 'Q');</v>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>UPDATE quickship SET qscode='360QS', tubtype='LEEP', seats='6 + 1' WHERE pid=1005;</v>
+      </c>
+      <c r="S6" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO quickship (pid,acrylic_colour,cabinet_colour,heatshield_colour,seats,tub,price_rrp,deposit) VALUES ('1005','quartzite','walnut_enviro','tan','6 + 1','360','5625','1125');</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
@@ -914,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -925,26 +992,26 @@
       </c>
       <c r="F7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Quickship 360 Hybrid</v>
+        <v>360 (BHE) Hybrid</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Quickship 360 Hybrid Deposit (20% of £6,165)</v>
+        <v>Quickship 360 (BHE) Hybrid Deposit (20% of £6,165)</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="M7" s="3">
         <v>360</v>
@@ -958,22 +1025,30 @@
       </c>
       <c r="P7" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO product (pcode,pdescription,ptype) VALUES ('360QS-BHE', 'Quickship 360 Hybrid', 'Q');</v>
+        <v>UPDATE product SET paypal_button_id='CBHW25HKHZ8VC', pdescription='360 (BHE) Hybrid' WHERE pid=1006;</v>
       </c>
       <c r="Q7" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO quickship (pid,acrylic_colour,cabinet_colour,heatshield_colour,seats,tub,price_rrp,deposit) VALUES ('1006','alabaster','ebony_enviro','steel','6 + 1','360','6165','1233');</v>
+        <v>INSERT INTO product (pcode,pdescription,ptype) VALUES ('360QS-BHE', 'Quickship 360 Hybrid', 'Q');</v>
+      </c>
+      <c r="R7" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>UPDATE quickship SET qscode='360QS', tubtype='BHE', seats='6 + 1' WHERE pid=1006;</v>
+      </c>
+      <c r="S7" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO quickship (pid,acrylic_colour,cabinet_colour,heatshield_colour,seats,tub,price_rrp,deposit) VALUES ('1006','alabaster','ebony_enviro','steel','6 + 1','360','6165','1233');</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -984,26 +1059,26 @@
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Quickship 380 Hybrid</v>
+        <v>380 (BHE) Hybrid</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Quickship 380 Hybrid Deposit (20% of £6,695)</v>
+        <v>Quickship 380 (BHE) Hybrid Deposit (20% of £6,695)</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>11</v>
+      <c r="L8" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="M8" s="3">
         <v>380</v>
@@ -1017,22 +1092,30 @@
       </c>
       <c r="P8" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO product (pcode,pdescription,ptype) VALUES ('380QS-BHE', 'Quickship 380 Hybrid', 'Q');</v>
+        <v>UPDATE product SET paypal_button_id='ZCPJG2YTBM4UY', pdescription='380 (BHE) Hybrid' WHERE pid=1007;</v>
       </c>
       <c r="Q8" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO quickship (pid,acrylic_colour,cabinet_colour,heatshield_colour,seats,tub,price_rrp,deposit) VALUES ('1007','quartzite','bamboo','tan','7 + 1','380','6695','1339');</v>
+        <v>INSERT INTO product (pcode,pdescription,ptype) VALUES ('380QS-BHE', 'Quickship 380 Hybrid', 'Q');</v>
+      </c>
+      <c r="R8" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>UPDATE quickship SET qscode='380QS', tubtype='BHE', seats='7 + 1' WHERE pid=1007;</v>
+      </c>
+      <c r="S8" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO quickship (pid,acrylic_colour,cabinet_colour,heatshield_colour,seats,tub,price_rrp,deposit) VALUES ('1007','quartzite','bamboo','tan','7 + 1','380','6695','1339');</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1043,26 +1126,26 @@
       </c>
       <c r="F9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Quickship 550 Hybrid</v>
+        <v>550 (BHE) Hybrid</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Quickship 550 Hybrid Deposit (20% of £7,995)</v>
+        <v>Quickship 550 (BHE) Hybrid Deposit (20% of £7,995)</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="M9" s="3">
         <v>550</v>
@@ -1076,22 +1159,30 @@
       </c>
       <c r="P9" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO product (pcode,pdescription,ptype) VALUES ('550QS-BHE', 'Quickship 550 Hybrid', 'Q');</v>
+        <v>UPDATE product SET paypal_button_id='6FB7ZLDVLF422', pdescription='550 (BHE) Hybrid' WHERE pid=1008;</v>
       </c>
       <c r="Q9" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO quickship (pid,acrylic_colour,cabinet_colour,heatshield_colour,seats,tub,price_rrp,deposit) VALUES ('1008','opal','ebony_enviro','steel','6 + 2','550','7995','1599');</v>
+        <v>INSERT INTO product (pcode,pdescription,ptype) VALUES ('550QS-BHE', 'Quickship 550 Hybrid', 'Q');</v>
+      </c>
+      <c r="R9" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>UPDATE quickship SET qscode='550QS', tubtype='BHE', seats='6 + 2' WHERE pid=1008;</v>
+      </c>
+      <c r="S9" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO quickship (pid,acrylic_colour,cabinet_colour,heatshield_colour,seats,tub,price_rrp,deposit) VALUES ('1008','opal','ebony_enviro','steel','6 + 2','550','7995','1599');</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>1009</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1102,26 +1193,26 @@
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Quickship 725 Hybrid</v>
+        <v>725 (BHE) Hybrid</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Quickship 725 Hybrid Deposit (20% of £8,735)</v>
+        <v>Quickship 725 (BHE) Hybrid Deposit (20% of £8,735)</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="M10" s="3">
         <v>725</v>
@@ -1135,22 +1226,30 @@
       </c>
       <c r="P10" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO product (pcode,pdescription,ptype) VALUES ('725QS-BHE', 'Quickship 725 Hybrid', 'Q');</v>
+        <v>UPDATE product SET paypal_button_id='6YSJU9WDB3DVW', pdescription='725 (BHE) Hybrid' WHERE pid=1009;</v>
       </c>
       <c r="Q10" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO quickship (pid,acrylic_colour,cabinet_colour,heatshield_colour,seats,tub,price_rrp,deposit) VALUES ('1009','alabaster','walnut_enviro','tan','6 + 1','725','8735','1747');</v>
+        <v>INSERT INTO product (pcode,pdescription,ptype) VALUES ('725QS-BHE', 'Quickship 725 Hybrid', 'Q');</v>
+      </c>
+      <c r="R10" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>UPDATE quickship SET qscode='725QS', tubtype='BHE', seats='6 + 1' WHERE pid=1009;</v>
+      </c>
+      <c r="S10" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO quickship (pid,acrylic_colour,cabinet_colour,heatshield_colour,seats,tub,price_rrp,deposit) VALUES ('1009','alabaster','walnut_enviro','tan','6 + 1','725','8735','1747');</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>1010</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1161,26 +1260,26 @@
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Quickship 750 Hybrid</v>
+        <v>750 (BHE) Hybrid</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Quickship 750 Hybrid Deposit (20% of £11,595)</v>
+        <v>Quickship 750 (BHE) Hybrid Deposit (20% of £11,595)</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="M11" s="3">
         <v>750</v>
@@ -1194,11 +1293,19 @@
       </c>
       <c r="P11" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO product (pcode,pdescription,ptype) VALUES ('750QS-BHE', 'Quickship 750 Hybrid', 'Q');</v>
+        <v>UPDATE product SET paypal_button_id='TW2QEB7NXKSRG', pdescription='750 (BHE) Hybrid' WHERE pid=1010;</v>
       </c>
       <c r="Q11" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO quickship (pid,acrylic_colour,cabinet_colour,heatshield_colour,seats,tub,price_rrp,deposit) VALUES ('1010','alabaster','walnut_enviro','tan','8 + 1','750','11595','2319');</v>
+        <v>INSERT INTO product (pcode,pdescription,ptype) VALUES ('750QS-BHE', 'Quickship 750 Hybrid', 'Q');</v>
+      </c>
+      <c r="R11" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>UPDATE quickship SET qscode='750QS', tubtype='BHE', seats='8 + 1' WHERE pid=1010;</v>
+      </c>
+      <c r="S11" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO quickship (pid,acrylic_colour,cabinet_colour,heatshield_colour,seats,tub,price_rrp,deposit) VALUES ('1010','alabaster','walnut_enviro','tan','8 + 1','750','11595','2319');</v>
       </c>
     </row>
   </sheetData>
@@ -1208,4 +1315,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>